--- a/run1/P01_no_af/T01_optuna/S03_calculate_performances.xlsx
+++ b/run1/P01_no_af/T01_optuna/S03_calculate_performances.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8342218637545742</v>
+        <v>0.866325598214207</v>
       </c>
       <c r="F2" t="n">
-        <v>1.352757136090636</v>
+        <v>1.271951120117818</v>
       </c>
       <c r="G2" t="n">
-        <v>1.598289030741174</v>
+        <v>1.636569981073681</v>
       </c>
       <c r="H2" t="n">
-        <v>2.159777823387202</v>
+        <v>1.910078566972482</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1657781362454255</v>
+        <v>0.1336744017857927</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.05821509934043378</v>
+        <v>0.004996650898118626</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9405779524765808</v>
+        <v>0.9567037647952348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8756432021805015</v>
+        <v>0.8644170074055747</v>
       </c>
       <c r="G3" t="n">
-        <v>1.145071557635827</v>
+        <v>1.138763210311258</v>
       </c>
       <c r="H3" t="n">
-        <v>2.892959545879177</v>
+        <v>1.526384281419276</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05942204752341895</v>
+        <v>0.043296235204765</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0678252606676808</v>
+        <v>-0.05413519337544193</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6293545693796718</v>
+        <v>0.6382760655661915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5897006939518611</v>
+        <v>0.5910482336398185</v>
       </c>
       <c r="G4" t="n">
-        <v>1.467230948294711</v>
+        <v>1.411317217007191</v>
       </c>
       <c r="H4" t="n">
-        <v>1.471173083885645</v>
+        <v>1.4768631902098</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3706454306203285</v>
+        <v>0.3617239344338087</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3086683067461302</v>
+        <v>0.3070885275399039</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8013847952036092</v>
+        <v>0.8204351428585447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9393670107409992</v>
+        <v>0.9091387870544034</v>
       </c>
       <c r="G5" t="n">
-        <v>1.403530512223904</v>
+        <v>1.39555013613071</v>
       </c>
       <c r="H5" t="n">
-        <v>2.174636817717342</v>
+        <v>1.63777534620052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1986152047963906</v>
+        <v>0.1795648571414551</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06087598224600518</v>
+        <v>0.08598332835419346</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8999842043288068</v>
+        <v>0.954430808292299</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8357869877212278</v>
+        <v>0.8972885611107415</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66465832666433</v>
+        <v>1.35943705253541</v>
       </c>
       <c r="H6" t="n">
-        <v>1.248199164450423</v>
+        <v>1.124796954081754</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1000157956711932</v>
+        <v>0.04556919170770102</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04209186315363611</v>
+        <v>-0.02839602244900385</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9197617124881327</v>
+        <v>0.9623646836136777</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9579576371636832</v>
+        <v>0.9551853352905961</v>
       </c>
       <c r="G7" t="n">
-        <v>1.515081229157165</v>
+        <v>1.308566370900714</v>
       </c>
       <c r="H7" t="n">
-        <v>1.28950394666734</v>
+        <v>1.108751230761915</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08023828751186779</v>
+        <v>0.03763531638632267</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.07086829635571745</v>
+        <v>-0.06776923427964676</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6504861773047483</v>
+        <v>0.7085034834559581</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7650899215534811</v>
+        <v>0.7462264226176475</v>
       </c>
       <c r="G8" t="n">
-        <v>1.922456756696433</v>
+        <v>1.989533044454448</v>
       </c>
       <c r="H8" t="n">
-        <v>1.684680880011345</v>
+        <v>1.533004406255642</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3495138226952513</v>
+        <v>0.2914965165440416</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3068992246326855</v>
+        <v>0.3239878116997064</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8234106980405628</v>
+        <v>0.8750996584539781</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8529448488127974</v>
+        <v>0.8662334396729948</v>
       </c>
       <c r="G9" t="n">
-        <v>1.700732104172642</v>
+        <v>1.552512155963524</v>
       </c>
       <c r="H9" t="n">
-        <v>1.407461330376369</v>
+        <v>1.255517530366437</v>
       </c>
       <c r="I9" t="n">
-        <v>0.176589301959437</v>
+        <v>0.1249003415460218</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09270759714353434</v>
+        <v>0.07594085165701847</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9454062500168068</v>
+        <v>0.9364464198053314</v>
       </c>
       <c r="F10" t="n">
-        <v>1.100540285925969</v>
+        <v>1.106291566105847</v>
       </c>
       <c r="G10" t="n">
-        <v>1.225052702324927</v>
+        <v>1.293294250474049</v>
       </c>
       <c r="H10" t="n">
-        <v>1.295704962183431</v>
+        <v>1.239250835340759</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05459374998319266</v>
+        <v>0.06355358019466795</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0219914390045195</v>
+        <v>0.01688049365836908</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9846488996185565</v>
+        <v>0.9701173699168937</v>
       </c>
       <c r="F11" t="n">
-        <v>1.005996443239622</v>
+        <v>0.9778418688487045</v>
       </c>
       <c r="G11" t="n">
-        <v>1.808166511335101</v>
+        <v>1.846334454828021</v>
       </c>
       <c r="H11" t="n">
-        <v>1.751247094241007</v>
+        <v>2.074653971174093</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01535110038144305</v>
+        <v>0.02988263008310599</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.09164555178978162</v>
+        <v>-0.06109393691786025</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6986868595526299</v>
+        <v>0.6697714285283264</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5063185859372148</v>
+        <v>0.4949733610307421</v>
       </c>
       <c r="G12" t="n">
-        <v>1.428597101145886</v>
+        <v>1.484842381272251</v>
       </c>
       <c r="H12" t="n">
-        <v>1.164488576897301</v>
+        <v>1.47014541643173</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3013131404473698</v>
+        <v>0.3302285714716734</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3105160867864294</v>
+        <v>0.3259655494015996</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8762473363959972</v>
+        <v>0.8587784060835167</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8709517717009353</v>
+        <v>0.8597022653284312</v>
       </c>
       <c r="G13" t="n">
-        <v>1.487272104935305</v>
+        <v>1.54149036219144</v>
       </c>
       <c r="H13" t="n">
-        <v>1.40381354444058</v>
+        <v>1.594683407648861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1237526636040028</v>
+        <v>0.1412215939164831</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0802873246670559</v>
+        <v>0.09391736871403629</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9768994747563351</v>
+        <v>0.9551540562339069</v>
       </c>
       <c r="F14" t="n">
-        <v>1.110626048506404</v>
+        <v>1.086088622608735</v>
       </c>
       <c r="G14" t="n">
-        <v>1.176561623043067</v>
+        <v>1.220613195718026</v>
       </c>
       <c r="H14" t="n">
-        <v>2.346810122641796</v>
+        <v>2.256228393990185</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02310052524366468</v>
+        <v>0.04484594376609286</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01799717616304297</v>
+        <v>0.03969288693230311</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9775469035176597</v>
+        <v>1.000939986439826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9959568546540922</v>
+        <v>1.002189363534786</v>
       </c>
       <c r="G15" t="n">
-        <v>1.975380844890877</v>
+        <v>1.121278196347001</v>
       </c>
       <c r="H15" t="n">
-        <v>1.030669351685599</v>
+        <v>1.008984679383341</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02245309648233962</v>
+        <v>-0.0009399864398267344</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0008286723796253614</v>
+        <v>-0.005423952062516335</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6931258047216199</v>
+        <v>0.7102380637289988</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6296990804589992</v>
+        <v>0.5967217249205833</v>
       </c>
       <c r="G16" t="n">
-        <v>1.303859663266164</v>
+        <v>1.281981553605154</v>
       </c>
       <c r="H16" t="n">
-        <v>1.19359724335336</v>
+        <v>1.177086698050995</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3068741952783807</v>
+        <v>0.2897619362710019</v>
       </c>
       <c r="J16" t="n">
-        <v>0.254240305498638</v>
+        <v>0.2932957581028651</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.882524060998538</v>
+        <v>0.8887773688009104</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9120939945398318</v>
+        <v>0.8949999036880345</v>
       </c>
       <c r="G17" t="n">
-        <v>1.485267377066703</v>
+        <v>1.207957648556727</v>
       </c>
       <c r="H17" t="n">
-        <v>1.523692239226918</v>
+        <v>1.48076659047484</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1174759390014615</v>
+        <v>0.1112226311990892</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09102205134710188</v>
+        <v>0.1091882309908841</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.8327782964572364</v>
+        <v>0.8549447046859422</v>
       </c>
       <c r="F18" t="n">
-        <v>1.123294768152353</v>
+        <v>1.190508219225588</v>
       </c>
       <c r="G18" t="n">
-        <v>27.44661025071498</v>
+        <v>33.12537778724784</v>
       </c>
       <c r="H18" t="n">
-        <v>1.510162166299407</v>
+        <v>1.54153998805308</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1672217035427629</v>
+        <v>0.1450552953140571</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03678902169330323</v>
+        <v>-0.02084565782194803</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9027607261521394</v>
+        <v>0.9295240050460176</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8906962364723823</v>
+        <v>0.8540250750501169</v>
       </c>
       <c r="G19" t="n">
-        <v>1.721727302644688</v>
+        <v>1.452218578180947</v>
       </c>
       <c r="H19" t="n">
-        <v>1.430748524554561</v>
+        <v>1.401097025518215</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09723927384786046</v>
+        <v>0.07047599495398216</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1633695979694596</v>
+        <v>-0.1154721076984129</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6613422218989164</v>
+        <v>0.6439741907570069</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5931571314672205</v>
+        <v>0.5981351357314216</v>
       </c>
       <c r="G20" t="n">
-        <v>1.53490991302247</v>
+        <v>1.524905459210567</v>
       </c>
       <c r="H20" t="n">
-        <v>1.138507107407965</v>
+        <v>1.107795541369361</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3386577781010846</v>
+        <v>0.3560258092429941</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3759265286522945</v>
+        <v>0.3706890624957987</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7989604148360975</v>
+        <v>0.8094809668296555</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8690493786973189</v>
+        <v>0.8808894766690422</v>
       </c>
       <c r="G21" t="n">
-        <v>10.23441582212738</v>
+        <v>12.03416727487979</v>
       </c>
       <c r="H21" t="n">
-        <v>1.359805932753978</v>
+        <v>1.350144184980219</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2010395851639029</v>
+        <v>0.1905190331703446</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08311531745871222</v>
+        <v>0.07812376565847907</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9775681855276831</v>
+        <v>0.9307386573161642</v>
       </c>
       <c r="F22" t="n">
-        <v>1.252785162103647</v>
+        <v>1.245026942254805</v>
       </c>
       <c r="G22" t="n">
-        <v>1.190232394852242</v>
+        <v>1.268668550121004</v>
       </c>
       <c r="H22" t="n">
-        <v>1.055516615720108</v>
+        <v>1.301791386725068</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02243181447231646</v>
+        <v>0.06926134268383533</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01998951667041315</v>
+        <v>0.02605850360754591</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9907872154155249</v>
+        <v>0.9933681631154472</v>
       </c>
       <c r="F23" t="n">
-        <v>0.820271761629488</v>
+        <v>0.8188301148905509</v>
       </c>
       <c r="G23" t="n">
-        <v>1.082266147955709</v>
+        <v>1.028280792849794</v>
       </c>
       <c r="H23" t="n">
-        <v>1.576863274401648</v>
+        <v>0.9881377290558736</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009212784584474831</v>
+        <v>0.0066318368845526</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0003011563376356108</v>
+        <v>0.001456896258402285</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.9848544275431763</v>
+        <v>0.7004208133783434</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8488409133913165</v>
+        <v>0.6481896655220405</v>
       </c>
       <c r="G24" t="n">
-        <v>1.009365764359596</v>
+        <v>1.338828580419036</v>
       </c>
       <c r="H24" t="n">
-        <v>1.020835302385414</v>
+        <v>1.339817835336003</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01514557245682413</v>
+        <v>0.2995791866216569</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004866991040229585</v>
+        <v>0.2400991492616549</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9844032761621276</v>
+        <v>0.8748425446033185</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9739659457081508</v>
+        <v>0.9040155742224654</v>
       </c>
       <c r="G25" t="n">
-        <v>1.093954769055849</v>
+        <v>1.211925974463278</v>
       </c>
       <c r="H25" t="n">
-        <v>1.21773839750239</v>
+        <v>1.209915650372315</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01559672383787221</v>
+        <v>0.1251574553966812</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008185117124334932</v>
+        <v>0.08920484970920069</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9732626533327453</v>
+        <v>0.938042426770245</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9309503566464493</v>
+        <v>0.8971547772420495</v>
       </c>
       <c r="G26" t="n">
-        <v>1.241481549144823</v>
+        <v>1.327443943421671</v>
       </c>
       <c r="H26" t="n">
-        <v>1.101621371935873</v>
+        <v>1.24005739755098</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02673734666725469</v>
+        <v>0.06195757322975504</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.06697631661274617</v>
+        <v>-0.02824269072898233</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9715105215628772</v>
+        <v>0.9740568933446844</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9317004870775309</v>
+        <v>0.9189259298627319</v>
       </c>
       <c r="G27" t="n">
-        <v>1.21333072357572</v>
+        <v>1.138315038323679</v>
       </c>
       <c r="H27" t="n">
-        <v>1.092761129529833</v>
+        <v>1.042341234454597</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02848947843712324</v>
+        <v>0.02594310665531607</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.04151632035063479</v>
+        <v>-0.02723607685070961</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9824981122810742</v>
+        <v>0.7162574129085202</v>
       </c>
       <c r="F28" t="n">
-        <v>1.183976446699689</v>
+        <v>0.8548633582870696</v>
       </c>
       <c r="G28" t="n">
-        <v>1.212357482810474</v>
+        <v>1.705250273584299</v>
       </c>
       <c r="H28" t="n">
-        <v>1.183493893833444</v>
+        <v>1.271908326791008</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01750188771892536</v>
+        <v>0.2837425870914796</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0725732624447204</v>
+        <v>0.2255727859297685</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9757570957255658</v>
+        <v>0.8761189110078161</v>
       </c>
       <c r="F29" t="n">
-        <v>1.015542430141223</v>
+        <v>0.8903146884639502</v>
       </c>
       <c r="G29" t="n">
-        <v>1.222389918510339</v>
+        <v>1.390336418443216</v>
       </c>
       <c r="H29" t="n">
-        <v>1.12595879843305</v>
+        <v>1.184768986265528</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02424290427443406</v>
+        <v>0.1238810889921838</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.06035529980270112</v>
+        <v>0.0566980061166921</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.988728260262695</v>
+        <v>0.9578339466740186</v>
       </c>
       <c r="F30" t="n">
-        <v>1.083474021270711</v>
+        <v>1.064255709998771</v>
       </c>
       <c r="G30" t="n">
-        <v>1.098167848269439</v>
+        <v>1.191343268524954</v>
       </c>
       <c r="H30" t="n">
-        <v>1.095942198332464</v>
+        <v>1.12229260916681</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01127173973730433</v>
+        <v>0.04216605332598089</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03715758344330655</v>
+        <v>0.05423617038119333</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9883492381327458</v>
+        <v>0.9912389055268407</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9034650413815289</v>
+        <v>0.9115637821272891</v>
       </c>
       <c r="G31" t="n">
-        <v>1.428505864992909</v>
+        <v>1.19273192954516</v>
       </c>
       <c r="H31" t="n">
-        <v>1.054117740008935</v>
+        <v>1.000823653412698</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01165076186725378</v>
+        <v>0.00876109447315887</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01961522801647209</v>
+        <v>0.01082697198473404</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9810805090782826</v>
+        <v>0.7412010688067828</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7467277889210581</v>
+        <v>0.4866789150055683</v>
       </c>
       <c r="G32" t="n">
-        <v>1.040391175886965</v>
+        <v>1.370045257278043</v>
       </c>
       <c r="H32" t="n">
-        <v>0.978427291047791</v>
+        <v>1.183945220410503</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01891949092171696</v>
+        <v>0.2587989311932168</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01686331948014286</v>
+        <v>0.3372605862859157</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9860526691579077</v>
+        <v>0.8967579736692141</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9112222838577658</v>
+        <v>0.8208328023772095</v>
       </c>
       <c r="G33" t="n">
-        <v>1.189021629716438</v>
+        <v>1.251373485116053</v>
       </c>
       <c r="H33" t="n">
-        <v>1.042829076463063</v>
+        <v>1.102353827663337</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01394733084209228</v>
+        <v>0.103242026330786</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01330316399321189</v>
+        <v>0.1341079095506142</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.9689279891021643</v>
+        <v>0.9471382929454999</v>
       </c>
       <c r="F34" t="n">
-        <v>1.122240446790463</v>
+        <v>1.048497835584144</v>
       </c>
       <c r="G34" t="n">
-        <v>1.115891779751694</v>
+        <v>1.173712875112653</v>
       </c>
       <c r="H34" t="n">
-        <v>1.849180795004868</v>
+        <v>1.461382796565006</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03107201089783562</v>
+        <v>0.05286170705449988</v>
       </c>
       <c r="J34" t="n">
-        <v>0.007727858306279423</v>
+        <v>0.0729302300128517</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9861098440385215</v>
+        <v>0.986455689796039</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9841412820126125</v>
+        <v>0.9846757448469757</v>
       </c>
       <c r="G35" t="n">
-        <v>1.491937309417744</v>
+        <v>1.413730450565078</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9780672576510088</v>
+        <v>0.9729063887341382</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01389015596147791</v>
+        <v>0.0135443102039603</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01268238004538813</v>
+        <v>0.01214619222030422</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9873747363709063</v>
+        <v>0.6812064393730805</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8334661746376171</v>
+        <v>0.675493483168935</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9985106210541366</v>
+        <v>1.422272700032423</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9954108612639284</v>
+        <v>1.177145477844</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01262526362909455</v>
+        <v>0.3187935606269201</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01291664691347871</v>
+        <v>0.2000054799531723</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9808041898371975</v>
+        <v>0.8716001407048731</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9799493011468977</v>
+        <v>0.9028890212000183</v>
       </c>
       <c r="G37" t="n">
-        <v>1.202113236741191</v>
+        <v>1.336572008570051</v>
       </c>
       <c r="H37" t="n">
-        <v>1.274219637973268</v>
+        <v>1.203811554381048</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01919581016280214</v>
+        <v>0.1283998592951263</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01110896175504842</v>
+        <v>0.09502730072877585</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9598999540734429</v>
+        <v>0.9137033349166798</v>
       </c>
       <c r="F38" t="n">
-        <v>1.167437906774915</v>
+        <v>1.135438819227117</v>
       </c>
       <c r="G38" t="n">
-        <v>13.92616774652924</v>
+        <v>17.79635212340562</v>
       </c>
       <c r="H38" t="n">
-        <v>1.151074409381238</v>
+        <v>1.344352223248957</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04010004592655636</v>
+        <v>0.08629666508331946</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.001063158289786204</v>
+        <v>0.02637565233739525</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9806785615906336</v>
+        <v>0.9753580840375412</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7944636396757857</v>
+        <v>0.8162241485343852</v>
       </c>
       <c r="G39" t="n">
-        <v>1.282930545291092</v>
+        <v>1.2977241686216</v>
       </c>
       <c r="H39" t="n">
-        <v>1.051828659121676</v>
+        <v>1.086891419004503</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01932143840936618</v>
+        <v>0.02464191596245857</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.03767682768201608</v>
+        <v>-0.06609899160930777</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9847578730406508</v>
+        <v>0.7076515115732889</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9442578240087527</v>
+        <v>0.7034018416056276</v>
       </c>
       <c r="G40" t="n">
-        <v>1.042235051005688</v>
+        <v>1.377376237222219</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9813540138607231</v>
+        <v>1.058303359215084</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01524212695935079</v>
+        <v>0.2923484884267122</v>
       </c>
       <c r="J40" t="n">
-        <v>0.006525881904635433</v>
+        <v>0.2599356801841776</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9751121295682422</v>
+        <v>0.8655709768425032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9687197901531513</v>
+        <v>0.8850216031223767</v>
       </c>
       <c r="G41" t="n">
-        <v>5.417111114275341</v>
+        <v>6.823817509749812</v>
       </c>
       <c r="H41" t="n">
-        <v>1.061419027454546</v>
+        <v>1.163182333822848</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02488787043175804</v>
+        <v>0.1344290231574971</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.01073803468905617</v>
+        <v>0.07340411363742121</v>
       </c>
     </row>
     <row r="42">
@@ -1943,22 +1943,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.9690066813903152</v>
+        <v>0.6327050493732951</v>
       </c>
       <c r="F42" t="n">
-        <v>1.29245509922513</v>
+        <v>1.347415231329511</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9710866610446275</v>
+        <v>1.429027419123889</v>
       </c>
       <c r="H42" t="n">
-        <v>1.023694581052241</v>
+        <v>2.002065214575668</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03099331860968435</v>
+        <v>0.3672949506267046</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.01104290247701512</v>
+        <v>-0.05403631208687143</v>
       </c>
     </row>
     <row r="43">
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9865417418476319</v>
+        <v>0.7454041796652211</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8415064548746641</v>
+        <v>0.869805318655625</v>
       </c>
       <c r="G43" t="n">
-        <v>0.983616374136516</v>
+        <v>1.109662825413074</v>
       </c>
       <c r="H43" t="n">
-        <v>1.257449645487443</v>
+        <v>1.594600794592931</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0134582581523679</v>
+        <v>0.2545958203347787</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.02619634035010088</v>
+        <v>-0.06070610587817793</v>
       </c>
     </row>
     <row r="44">
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.9269509652009414</v>
+        <v>0.5065581154249941</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7850610231400288</v>
+        <v>0.5840208545147147</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9668872772014923</v>
+        <v>1.119410144335793</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9310460397002717</v>
+        <v>1.167482131936735</v>
       </c>
       <c r="I44" t="n">
-        <v>0.073049034799059</v>
+        <v>0.4934418845750062</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07963892191160171</v>
+        <v>0.3153270287991402</v>
       </c>
     </row>
     <row r="45">
@@ -2051,22 +2051,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9608331294796294</v>
+        <v>0.6282224481545035</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9730075257466075</v>
+        <v>0.9337471348332839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9738634374608783</v>
+        <v>1.219366796290919</v>
       </c>
       <c r="H45" t="n">
-        <v>1.070730088746652</v>
+        <v>1.588049380368444</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03916687052037045</v>
+        <v>0.3717775518454964</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01413322636149491</v>
+        <v>0.06686153694469632</v>
       </c>
     </row>
     <row r="46">
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.9787945992376932</v>
+        <v>0.8823947215791199</v>
       </c>
       <c r="F46" t="n">
-        <v>0.965777004264128</v>
+        <v>0.8454889926997422</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9962673270764048</v>
+        <v>1.370950106154538</v>
       </c>
       <c r="H46" t="n">
-        <v>1.060907158957904</v>
+        <v>1.275620486366789</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02120540076230681</v>
+        <v>0.1176052784208801</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.1068916654063587</v>
+        <v>0.03097224816898325</v>
       </c>
     </row>
     <row r="47">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9827864048429377</v>
+        <v>0.917078049434587</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9008834648285002</v>
+        <v>0.9287226167353021</v>
       </c>
       <c r="G47" t="n">
-        <v>1.02200226558724</v>
+        <v>1.251188471994329</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9664029843097707</v>
+        <v>1.192528002819112</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01721359515706278</v>
+        <v>0.0829219505654134</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.007067018174512496</v>
+        <v>-0.03818746026701714</v>
       </c>
     </row>
     <row r="48">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9439510828326222</v>
+        <v>0.6281259688821608</v>
       </c>
       <c r="F48" t="n">
-        <v>1.189875489898854</v>
+        <v>0.7974276772527389</v>
       </c>
       <c r="G48" t="n">
-        <v>1.19955206709636</v>
+        <v>1.502623599218292</v>
       </c>
       <c r="H48" t="n">
-        <v>1.161863246535708</v>
+        <v>1.315454982972427</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05604891716737737</v>
+        <v>0.371874031117839</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.07791725051734444</v>
+        <v>0.2776042059461433</v>
       </c>
     </row>
     <row r="49">
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.9685106956377508</v>
+        <v>0.809199579965289</v>
       </c>
       <c r="F49" t="n">
-        <v>1.018845319663827</v>
+        <v>0.8572130955625946</v>
       </c>
       <c r="G49" t="n">
-        <v>1.072607219920002</v>
+        <v>1.374920725789053</v>
       </c>
       <c r="H49" t="n">
-        <v>1.063057796601128</v>
+        <v>1.261201157386109</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03148930436224895</v>
+        <v>0.190800420034711</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.06395864469940515</v>
+        <v>0.09012966461603596</v>
       </c>
     </row>
     <row r="50">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.9787933183966038</v>
+        <v>0.9059051402917396</v>
       </c>
       <c r="F50" t="n">
-        <v>1.113722659895622</v>
+        <v>1.028396464608696</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9943492584636323</v>
+        <v>1.180165275218643</v>
       </c>
       <c r="H50" t="n">
-        <v>1.008652822869231</v>
+        <v>1.042888162012574</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02120668160339556</v>
+        <v>0.09409485970825981</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01027676143983891</v>
+        <v>0.086102926583419</v>
       </c>
     </row>
     <row r="51">
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.9799325187152168</v>
+        <v>0.9264236820751106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.928310130260861</v>
+        <v>0.9544882482889095</v>
       </c>
       <c r="G51" t="n">
-        <v>1.02605985881575</v>
+        <v>1.475303674254816</v>
       </c>
       <c r="H51" t="n">
-        <v>1.046946574139047</v>
+        <v>1.656242399047501</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02006748128478275</v>
+        <v>0.07357631792488895</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.007345136447246103</v>
+        <v>-0.03575202226835272</v>
       </c>
     </row>
     <row r="52">
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9272451955516366</v>
+        <v>0.6445035750546635</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6701728951265125</v>
+        <v>0.4634652676322887</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9955025002573835</v>
+        <v>1.240002788687143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9321408269421373</v>
+        <v>1.100047799411499</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07275480444836291</v>
+        <v>0.3554964249453362</v>
       </c>
       <c r="J52" t="n">
-        <v>0.08738599945688286</v>
+        <v>0.3688719805254973</v>
       </c>
     </row>
     <row r="53">
@@ -2339,22 +2339,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9619903442211521</v>
+        <v>0.8256107991405043</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9040685617609981</v>
+        <v>0.8154499935099651</v>
       </c>
       <c r="G53" t="n">
-        <v>1.005303872512255</v>
+        <v>1.298490579386868</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9959134079834717</v>
+        <v>1.266392786823858</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03800965577884793</v>
+        <v>0.1743892008594956</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03010587481649203</v>
+        <v>0.1397409616135211</v>
       </c>
     </row>
     <row r="54">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9766513158985564</v>
+        <v>0.8449508615350203</v>
       </c>
       <c r="F54" t="n">
-        <v>1.137179704224301</v>
+        <v>1.038979517440844</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9706166737672653</v>
+        <v>1.238585202680464</v>
       </c>
       <c r="H54" t="n">
-        <v>1.076370832542256</v>
+        <v>1.850409012143947</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02334868410144342</v>
+        <v>0.1550491384649795</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.005481261906401302</v>
+        <v>0.08134621783113571</v>
       </c>
     </row>
     <row r="55">
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9874054535050946</v>
+        <v>0.8956902154534948</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9995549719406268</v>
+        <v>1.013486075333923</v>
       </c>
       <c r="G55" t="n">
-        <v>1.114829121056848</v>
+        <v>2.055750818068709</v>
       </c>
       <c r="H55" t="n">
-        <v>1.005098994111855</v>
+        <v>1.114874743489309</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01259454649490477</v>
+        <v>0.1043097845465046</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.002781057910718587</v>
+        <v>-0.0167571242509934</v>
       </c>
     </row>
     <row r="56">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9314406541327845</v>
+        <v>0.5781025778234792</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7905208396778287</v>
+        <v>0.6139690841287214</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9408172092026963</v>
+        <v>1.440425086427444</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9942589542459536</v>
+        <v>1.234812242564869</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06855934586721624</v>
+        <v>0.4218974221765213</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06377728951839634</v>
+        <v>0.2728695168502326</v>
       </c>
     </row>
     <row r="57">
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9651658078454788</v>
+        <v>0.7729145516039981</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9757518386142522</v>
+        <v>0.8888115589678297</v>
       </c>
       <c r="G57" t="n">
-        <v>1.008754334675603</v>
+        <v>1.578253702392205</v>
       </c>
       <c r="H57" t="n">
-        <v>1.025242926966688</v>
+        <v>1.400031999399375</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03483419215452085</v>
+        <v>0.2270854483960013</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01850498990042522</v>
+        <v>0.1124862034767917</v>
       </c>
     </row>
     <row r="58">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.9709153340674839</v>
+        <v>0.8307678872993282</v>
       </c>
       <c r="F58" t="n">
-        <v>1.159904513007426</v>
+        <v>1.150232120812376</v>
       </c>
       <c r="G58" t="n">
-        <v>4.783197709001217</v>
+        <v>23.7894121187011</v>
       </c>
       <c r="H58" t="n">
-        <v>0.989423084503359</v>
+        <v>1.467006555709374</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02908466593251524</v>
+        <v>0.1692321127006712</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005396631060686774</v>
+        <v>0.01369058436030457</v>
       </c>
     </row>
     <row r="59">
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.9846367869574393</v>
+        <v>0.9127378600411559</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7893768047019898</v>
+        <v>0.8171487759960598</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9795788717559175</v>
+        <v>1.349280713971575</v>
       </c>
       <c r="H59" t="n">
-        <v>1.011063320268167</v>
+        <v>1.434143893391302</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0153632130425605</v>
+        <v>0.08726213995884402</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.03103273408862717</v>
+        <v>-0.06730667997074091</v>
       </c>
     </row>
     <row r="60">
@@ -2591,22 +2591,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9247458435421235</v>
+        <v>0.6157818905724239</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8868555586329639</v>
+        <v>0.6033152937931685</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9472052020571832</v>
+        <v>1.44477080098532</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9604028191118621</v>
+        <v>0.9759541445635751</v>
       </c>
       <c r="I60" t="n">
-        <v>0.07525415645787792</v>
+        <v>0.3842181094275769</v>
       </c>
       <c r="J60" t="n">
-        <v>0.06692004917643268</v>
+        <v>0.3652389059483631</v>
       </c>
     </row>
     <row r="61">
@@ -2627,22 +2627,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.9600993215223488</v>
+        <v>0.7864292126376355</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9453789587807929</v>
+        <v>0.8568987302005345</v>
       </c>
       <c r="G61" t="n">
-        <v>2.23666059427144</v>
+        <v>8.861154544552658</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9869630746277959</v>
+        <v>1.292368197888083</v>
       </c>
       <c r="I61" t="n">
-        <v>0.03990067847765152</v>
+        <v>0.2135707873623645</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0137613153828308</v>
+        <v>0.1038742701126421</v>
       </c>
     </row>
     <row r="62">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.8399946327733192</v>
+        <v>0.7054493095459721</v>
       </c>
       <c r="F62" t="n">
-        <v>1.364137383617745</v>
+        <v>1.375705887644752</v>
       </c>
       <c r="G62" t="n">
-        <v>1.663393338700795</v>
+        <v>1.746654983657975</v>
       </c>
       <c r="H62" t="n">
-        <v>1.828485670000141</v>
+        <v>2.102844869594516</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1600053672266805</v>
+        <v>0.2945506904540276</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.06711747320054928</v>
+        <v>-0.07616711360646722</v>
       </c>
     </row>
     <row r="63">
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9648546403600953</v>
+        <v>0.875702210438508</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8638616526659376</v>
+        <v>0.8958313360427658</v>
       </c>
       <c r="G63" t="n">
-        <v>1.275158231157658</v>
+        <v>1.460416156811227</v>
       </c>
       <c r="H63" t="n">
-        <v>1.577009376626039</v>
+        <v>2.56331167298459</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03514535963990451</v>
+        <v>0.1242977895614917</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.05345795198518255</v>
+        <v>-0.09244419135792614</v>
       </c>
     </row>
     <row r="64">
@@ -2735,22 +2735,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.6680611146059529</v>
+        <v>0.5559664953701399</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6772686307361825</v>
+        <v>0.6644604140077208</v>
       </c>
       <c r="G64" t="n">
-        <v>1.325536141859364</v>
+        <v>1.423262612358645</v>
       </c>
       <c r="H64" t="n">
-        <v>1.297676313087889</v>
+        <v>1.432267020748889</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3319388853940475</v>
+        <v>0.4440335046298604</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2060086174617988</v>
+        <v>0.2210242453036285</v>
       </c>
     </row>
     <row r="65">
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.8243034625797888</v>
+        <v>0.7123726717848734</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9684225556732878</v>
+        <v>0.9786658792317461</v>
       </c>
       <c r="G65" t="n">
-        <v>1.421362570572606</v>
+        <v>1.543444584275949</v>
       </c>
       <c r="H65" t="n">
-        <v>1.567723786571356</v>
+        <v>2.032807854442665</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1756965374202109</v>
+        <v>0.2876273282151263</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02847773075868887</v>
+        <v>0.01747098011307805</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.8846005902134368</v>
+        <v>0.9365990382406064</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8796125955292026</v>
+        <v>0.8874560712054123</v>
       </c>
       <c r="G66" t="n">
-        <v>1.539039929747928</v>
+        <v>1.394972356627448</v>
       </c>
       <c r="H66" t="n">
-        <v>1.271088932516116</v>
+        <v>1.218136390941339</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1153994097865632</v>
+        <v>0.06340096175939358</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.008137330334955228</v>
+        <v>-0.01712685671162562</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.9435545664509575</v>
+        <v>0.9391537938166358</v>
       </c>
       <c r="F67" t="n">
-        <v>1.018847600397241</v>
+        <v>0.9082831551172252</v>
       </c>
       <c r="G67" t="n">
-        <v>1.539233460319665</v>
+        <v>1.228099236556218</v>
       </c>
       <c r="H67" t="n">
-        <v>1.519466369544952</v>
+        <v>1.132720851246751</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05644543354904297</v>
+        <v>0.06084620618336456</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.1389351175422386</v>
+        <v>-0.01533888054674493</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.7073018679807737</v>
+        <v>0.7299348013384023</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8970768108595463</v>
+        <v>0.9247249385313663</v>
       </c>
       <c r="G68" t="n">
-        <v>1.482680037895094</v>
+        <v>1.402680362328399</v>
       </c>
       <c r="H68" t="n">
-        <v>1.317289925501608</v>
+        <v>1.234558069584127</v>
       </c>
       <c r="I68" t="n">
-        <v>0.292698132019226</v>
+        <v>0.2700651986615974</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1873312983808181</v>
+        <v>0.1622846493700933</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.8451523415483889</v>
+        <v>0.8685625444652151</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9318456689286635</v>
+        <v>0.9068213882846679</v>
       </c>
       <c r="G69" t="n">
-        <v>1.520317809320896</v>
+        <v>1.341917318504022</v>
       </c>
       <c r="H69" t="n">
-        <v>1.369281742520892</v>
+        <v>1.195138437257405</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1548476584516109</v>
+        <v>0.1314374555347847</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01341961683454103</v>
+        <v>0.04327297070390742</v>
       </c>
     </row>
     <row r="70">
@@ -2951,22 +2951,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.8731632926805003</v>
+        <v>0.9290572837450483</v>
       </c>
       <c r="F70" t="n">
-        <v>1.003592930883888</v>
+        <v>1.035736614612068</v>
       </c>
       <c r="G70" t="n">
-        <v>1.41191056619546</v>
+        <v>1.243412226323132</v>
       </c>
       <c r="H70" t="n">
-        <v>1.310633917207806</v>
+        <v>1.141092389118386</v>
       </c>
       <c r="I70" t="n">
-        <v>0.126836707319499</v>
+        <v>0.07094271625495108</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1081448896410387</v>
+        <v>0.0795800126709596</v>
       </c>
     </row>
     <row r="71">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.9605571740004973</v>
+        <v>0.9370248004002825</v>
       </c>
       <c r="F71" t="n">
-        <v>1.028515995161322</v>
+        <v>0.9668139981459708</v>
       </c>
       <c r="G71" t="n">
-        <v>1.924338609725695</v>
+        <v>1.27050520603242</v>
       </c>
       <c r="H71" t="n">
-        <v>2.868983710964158</v>
+        <v>2.047346597864379</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03944282599950222</v>
+        <v>0.06297519959971709</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.116082386381817</v>
+        <v>-0.04912716896430314</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.6798067248942072</v>
+        <v>0.7082382805416798</v>
       </c>
       <c r="F72" t="n">
-        <v>0.533415029547114</v>
+        <v>0.5273608960178476</v>
       </c>
       <c r="G72" t="n">
-        <v>1.291244177050571</v>
+        <v>1.336134485565808</v>
       </c>
       <c r="H72" t="n">
-        <v>1.161575704581032</v>
+        <v>1.283031227415093</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3201932751057925</v>
+        <v>0.29176171945832</v>
       </c>
       <c r="J72" t="n">
-        <v>0.273617259658166</v>
+        <v>0.2818615307412615</v>
       </c>
     </row>
     <row r="73">
@@ -3059,22 +3059,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.8378423971917353</v>
+        <v>0.8581067882290033</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8551746518641078</v>
+        <v>0.8433038362586287</v>
       </c>
       <c r="G73" t="n">
-        <v>1.542497784323908</v>
+        <v>1.28335063930712</v>
       </c>
       <c r="H73" t="n">
-        <v>1.780397777584332</v>
+        <v>1.490490071465953</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1621576028082647</v>
+        <v>0.1418932117709966</v>
       </c>
       <c r="J73" t="n">
-        <v>0.08855992097246294</v>
+        <v>0.1041047914826394</v>
       </c>
     </row>
     <row r="74">
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8864538757796533</v>
+        <v>0.6944370860791576</v>
       </c>
       <c r="F74" t="n">
-        <v>1.088283303390689</v>
+        <v>1.118860636880798</v>
       </c>
       <c r="G74" t="n">
-        <v>1.253311632138437</v>
+        <v>1.471861121201335</v>
       </c>
       <c r="H74" t="n">
-        <v>2.626273229159319</v>
+        <v>2.706830102135378</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1135461242203465</v>
+        <v>0.3055629139208422</v>
       </c>
       <c r="J74" t="n">
-        <v>0.03775237533688536</v>
+        <v>0.01071624749432953</v>
       </c>
     </row>
     <row r="75">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.9647119109297111</v>
+        <v>0.8261889902978462</v>
       </c>
       <c r="F75" t="n">
-        <v>1.044022028302099</v>
+        <v>1.026318331188978</v>
       </c>
       <c r="G75" t="n">
-        <v>2.004406327163176</v>
+        <v>4.211291418291082</v>
       </c>
       <c r="H75" t="n">
-        <v>1.143787582824395</v>
+        <v>1.212854348886972</v>
       </c>
       <c r="I75" t="n">
-        <v>0.03528808907028824</v>
+        <v>0.1738110097021532</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.04739163268857194</v>
+        <v>-0.02963079649808287</v>
       </c>
     </row>
     <row r="76">
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.6475347003110935</v>
+        <v>0.5248849591445192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6990284197440392</v>
+        <v>0.6985116907621333</v>
       </c>
       <c r="G76" t="n">
-        <v>1.29697881087543</v>
+        <v>1.362487799587955</v>
       </c>
       <c r="H76" t="n">
-        <v>1.211087145749394</v>
+        <v>1.339557609998994</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3524652996889071</v>
+        <v>0.4751150408554813</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1721327901954468</v>
+        <v>0.17274475813322</v>
       </c>
     </row>
     <row r="77">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.8329001623401523</v>
+        <v>0.6818370118405075</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9437779171456088</v>
+        <v>0.9478968862773028</v>
       </c>
       <c r="G77" t="n">
-        <v>1.518232256725682</v>
+        <v>2.348546779693457</v>
       </c>
       <c r="H77" t="n">
-        <v>1.660382652577703</v>
+        <v>1.753080687007115</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1670998376598472</v>
+        <v>0.318162988159492</v>
       </c>
       <c r="J77" t="n">
-        <v>0.05416451094791996</v>
+        <v>0.05127673637648896</v>
       </c>
     </row>
     <row r="78">
@@ -3239,22 +3239,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.8528401428581147</v>
+        <v>0.9291912101748681</v>
       </c>
       <c r="F78" t="n">
-        <v>1.066849813420551</v>
+        <v>1.118324515776479</v>
       </c>
       <c r="G78" t="n">
-        <v>30.67501444032575</v>
+        <v>14.04679639283386</v>
       </c>
       <c r="H78" t="n">
-        <v>1.148571681107787</v>
+        <v>1.204627712620705</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1471598571418846</v>
+        <v>0.07080878982513117</v>
       </c>
       <c r="J78" t="n">
-        <v>0.08518985254300471</v>
+        <v>0.0410509498969498</v>
       </c>
     </row>
     <row r="79">
@@ -3275,22 +3275,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.9299918318799995</v>
+        <v>0.95195085800087</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8763338814523201</v>
+        <v>0.8246631356049567</v>
       </c>
       <c r="G79" t="n">
-        <v>1.7305092688097</v>
+        <v>1.318727524131307</v>
       </c>
       <c r="H79" t="n">
-        <v>1.743285225432733</v>
+        <v>1.298210068527824</v>
       </c>
       <c r="I79" t="n">
-        <v>0.07000816812000032</v>
+        <v>0.0480491419991298</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1446104222803835</v>
+        <v>-0.07712144864184611</v>
       </c>
     </row>
     <row r="80">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.6899354493084566</v>
+        <v>0.7322905238606255</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6878228229360718</v>
+        <v>0.7211570220190167</v>
       </c>
       <c r="G80" t="n">
-        <v>1.354455871058777</v>
+        <v>1.226916510957757</v>
       </c>
       <c r="H80" t="n">
-        <v>1.147022260822029</v>
+        <v>0.9666509855615684</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3100645506915444</v>
+        <v>0.2677094761393756</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2763267033136663</v>
+        <v>0.2412550701279856</v>
       </c>
     </row>
     <row r="81">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.8242558080155235</v>
+        <v>0.8711441973454545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.877002172602981</v>
+        <v>0.8880482244668171</v>
       </c>
       <c r="G81" t="n">
-        <v>11.25332652673141</v>
+        <v>5.530813475974308</v>
       </c>
       <c r="H81" t="n">
-        <v>1.346293055787516</v>
+        <v>1.156496255570032</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1757441919844767</v>
+        <v>0.1288558026545457</v>
       </c>
       <c r="J81" t="n">
-        <v>0.07230204452542877</v>
+        <v>0.06839485712769666</v>
       </c>
     </row>
     <row r="82">
@@ -3383,22 +3383,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.8636002470963894</v>
+        <v>0.6503240028986361</v>
       </c>
       <c r="F82" t="n">
-        <v>1.241300763946817</v>
+        <v>1.302975980542964</v>
       </c>
       <c r="G82" t="n">
-        <v>1.282411718916854</v>
+        <v>1.433560688505113</v>
       </c>
       <c r="H82" t="n">
-        <v>1.559094951839099</v>
+        <v>2.181222397490342</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1363997529036103</v>
+        <v>0.3496759971013637</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02897336396433037</v>
+        <v>-0.01927302388748164</v>
       </c>
     </row>
     <row r="83">
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9417267363006463</v>
+        <v>0.775009053578788</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8258809176418912</v>
+        <v>0.8486135952186487</v>
       </c>
       <c r="G83" t="n">
-        <v>1.057379032410379</v>
+        <v>1.098404641096805</v>
       </c>
       <c r="H83" t="n">
-        <v>1.476085252014719</v>
+        <v>1.993823024830903</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05827326369935359</v>
+        <v>0.2249909464212118</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.007141383574202909</v>
+        <v>-0.03486332248565405</v>
       </c>
     </row>
     <row r="84">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.6360135839735838</v>
+        <v>0.5013560274252161</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5548454905386516</v>
+        <v>0.567871823307019</v>
       </c>
       <c r="G84" t="n">
-        <v>1.258209751021177</v>
+        <v>1.2606094466153</v>
       </c>
       <c r="H84" t="n">
-        <v>1.133613700965844</v>
+        <v>1.255672100512334</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3639864160264166</v>
+        <v>0.4986439725747841</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3495305730474978</v>
+        <v>0.3342592383144595</v>
       </c>
     </row>
     <row r="85">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.8137801891235396</v>
+        <v>0.6422296946342133</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8740090573757865</v>
+        <v>0.906487133022877</v>
       </c>
       <c r="G85" t="n">
-        <v>1.199333500782803</v>
+        <v>1.264191592072406</v>
       </c>
       <c r="H85" t="n">
-        <v>1.389597968273221</v>
+        <v>1.81023917427786</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1862198108764601</v>
+        <v>0.3577703053657864</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1237875178125415</v>
+        <v>0.09337429731377456</v>
       </c>
     </row>
     <row r="86">
@@ -3527,22 +3527,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.8974074032980884</v>
+        <v>0.9004251036839245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8525175273594611</v>
+        <v>0.8563566282451007</v>
       </c>
       <c r="G86" t="n">
-        <v>1.460815777349413</v>
+        <v>1.416081186271825</v>
       </c>
       <c r="H86" t="n">
-        <v>1.241952423516366</v>
+        <v>1.198872863360831</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1025925967019116</v>
+        <v>0.09957489631607552</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02291673804551497</v>
+        <v>0.01851668632114567</v>
       </c>
     </row>
     <row r="87">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9351364446988824</v>
+        <v>0.9355443100636817</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9241196779847554</v>
+        <v>0.9258759129607682</v>
       </c>
       <c r="G87" t="n">
-        <v>1.249688598395371</v>
+        <v>1.266054358843447</v>
       </c>
       <c r="H87" t="n">
-        <v>1.13912722448071</v>
+        <v>1.144943314099688</v>
       </c>
       <c r="I87" t="n">
-        <v>0.06486355530111798</v>
+        <v>0.06445568993631867</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.03304199142079356</v>
+        <v>-0.03500522683309382</v>
       </c>
     </row>
     <row r="88">
@@ -3599,22 +3599,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.6465224358011906</v>
+        <v>0.6483567801434019</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7879299349658994</v>
+        <v>0.7986956536374289</v>
       </c>
       <c r="G88" t="n">
-        <v>1.503129844296659</v>
+        <v>1.464788155352678</v>
       </c>
       <c r="H88" t="n">
-        <v>1.356515896057055</v>
+        <v>1.337427113913609</v>
       </c>
       <c r="I88" t="n">
-        <v>0.353477564198809</v>
+        <v>0.3516432198565977</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2862082828759258</v>
+        <v>0.2764555365013914</v>
       </c>
     </row>
     <row r="89">
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.8263554279327204</v>
+        <v>0.8281087312970025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8548557134367053</v>
+        <v>0.8603093982810992</v>
       </c>
       <c r="G89" t="n">
-        <v>1.404544740013814</v>
+        <v>1.382307900155983</v>
       </c>
       <c r="H89" t="n">
-        <v>1.245865181351377</v>
+        <v>1.227081097124709</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1736445720672794</v>
+        <v>0.1718912687029973</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09202767650021555</v>
+        <v>0.08665566532981428</v>
       </c>
     </row>
     <row r="90">
@@ -3671,22 +3671,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.9058794039508571</v>
+        <v>0.8771336356020736</v>
       </c>
       <c r="F90" t="n">
-        <v>1.053102879146029</v>
+        <v>1.019268244984604</v>
       </c>
       <c r="G90" t="n">
-        <v>1.193323940712001</v>
+        <v>1.220567233194097</v>
       </c>
       <c r="H90" t="n">
-        <v>1.060119441816492</v>
+        <v>1.082349736546688</v>
       </c>
       <c r="I90" t="n">
-        <v>0.09412059604914236</v>
+        <v>0.1228663643979259</v>
       </c>
       <c r="J90" t="n">
-        <v>0.06414726967742501</v>
+        <v>0.09421483039391676</v>
       </c>
     </row>
     <row r="91">
@@ -3707,22 +3707,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.9193516923802869</v>
+        <v>0.9168919360563167</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9603653833947184</v>
+        <v>0.9556469938380362</v>
       </c>
       <c r="G91" t="n">
-        <v>1.280893361633113</v>
+        <v>1.344997538249862</v>
       </c>
       <c r="H91" t="n">
-        <v>1.613779817582162</v>
+        <v>1.555058349093573</v>
       </c>
       <c r="I91" t="n">
-        <v>0.08064830761971276</v>
+        <v>0.08310806394368286</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.04212952831088224</v>
+        <v>-0.03700942176798394</v>
       </c>
     </row>
     <row r="92">
@@ -3743,22 +3743,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.6384776048867994</v>
+        <v>0.6177222109858196</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4721134175214758</v>
+        <v>0.4757739502621592</v>
       </c>
       <c r="G92" t="n">
-        <v>1.262241189713793</v>
+        <v>1.254247536132849</v>
       </c>
       <c r="H92" t="n">
-        <v>1.188769897552783</v>
+        <v>1.222341881995104</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3615223951132004</v>
+        <v>0.3822777890141802</v>
       </c>
       <c r="J92" t="n">
-        <v>0.357095284205695</v>
+        <v>0.3521105206426096</v>
       </c>
     </row>
     <row r="93">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.8212362337393143</v>
+        <v>0.80391592754807</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8285272266874081</v>
+        <v>0.8168963963615997</v>
       </c>
       <c r="G93" t="n">
-        <v>1.245486164019636</v>
+        <v>1.27327076919227</v>
       </c>
       <c r="H93" t="n">
-        <v>1.287556385650478</v>
+        <v>1.286583322545122</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1787637662606856</v>
+        <v>0.1960840724519299</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1263710085240791</v>
+        <v>0.1364386430895143</v>
       </c>
     </row>
     <row r="94">
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.8809651781277995</v>
+        <v>0.6640236271975779</v>
       </c>
       <c r="F94" t="n">
-        <v>1.040234042298795</v>
+        <v>1.04443602138681</v>
       </c>
       <c r="G94" t="n">
-        <v>1.140368493319087</v>
+        <v>1.111466002367014</v>
       </c>
       <c r="H94" t="n">
-        <v>1.695597162008791</v>
+        <v>2.115594768510835</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1190348218722004</v>
+        <v>0.3359763728024219</v>
       </c>
       <c r="J94" t="n">
-        <v>0.08023698132913026</v>
+        <v>0.07652163957599589</v>
       </c>
     </row>
     <row r="95">
@@ -3851,22 +3851,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9415390650965553</v>
+        <v>0.7695365183212994</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9864448903573068</v>
+        <v>1.009356714365369</v>
       </c>
       <c r="G95" t="n">
-        <v>1.471536665542663</v>
+        <v>2.40107603755298</v>
       </c>
       <c r="H95" t="n">
-        <v>1.031687036304037</v>
+        <v>1.114077705362737</v>
       </c>
       <c r="I95" t="n">
-        <v>0.05846093490344406</v>
+        <v>0.2304634816787001</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01037133675337243</v>
+        <v>-0.01261443567779463</v>
       </c>
     </row>
     <row r="96">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.6131943097239398</v>
+        <v>0.4815146726196685</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6173417845483201</v>
+        <v>0.6163912605829995</v>
       </c>
       <c r="G96" t="n">
-        <v>1.282179671568902</v>
+        <v>1.19975368469705</v>
       </c>
       <c r="H96" t="n">
-        <v>1.158958607781806</v>
+        <v>1.249271254699515</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3868056902760607</v>
+        <v>0.5184853273803318</v>
       </c>
       <c r="J96" t="n">
-        <v>0.268875189857201</v>
+        <v>0.270000906066723</v>
       </c>
     </row>
     <row r="97">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.8118995176494316</v>
+        <v>0.6383582727128485</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8813402390681406</v>
+        <v>0.8900613321117263</v>
       </c>
       <c r="G97" t="n">
-        <v>1.298028276810217</v>
+        <v>1.570765241539015</v>
       </c>
       <c r="H97" t="n">
-        <v>1.295414268698212</v>
+        <v>1.492981242857695</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1881004823505679</v>
+        <v>0.361641727287151</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1198278359799013</v>
+        <v>0.1113027033216412</v>
       </c>
     </row>
     <row r="98">
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.8509051029109138</v>
+        <v>0.8369831638689986</v>
       </c>
       <c r="F98" t="n">
-        <v>1.131309283856071</v>
+        <v>1.138018516375885</v>
       </c>
       <c r="G98" t="n">
-        <v>21.10563578526697</v>
+        <v>22.77414597729912</v>
       </c>
       <c r="H98" t="n">
-        <v>1.268186431621873</v>
+        <v>1.338633065983067</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1490948970890854</v>
+        <v>0.1630168361310006</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02991667640113183</v>
+        <v>0.02416359483935604</v>
       </c>
     </row>
     <row r="99">
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.9291346133451989</v>
+        <v>0.9161968186593021</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8117387701092512</v>
+        <v>0.8217328590488546</v>
       </c>
       <c r="G99" t="n">
-        <v>1.257667627170271</v>
+        <v>1.37116003375188</v>
       </c>
       <c r="H99" t="n">
-        <v>1.240574660165588</v>
+        <v>1.479196335940801</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07086538665480091</v>
+        <v>0.08380318134069764</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.06024048151179628</v>
+        <v>-0.07329411164476474</v>
       </c>
     </row>
     <row r="100">
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.6471497561207011</v>
+        <v>0.6327499098700704</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6100820967098454</v>
+        <v>0.6004403599166196</v>
       </c>
       <c r="G100" t="n">
-        <v>1.337896904772535</v>
+        <v>1.379262492398819</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9385308515600379</v>
+        <v>0.9807105985468301</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3528502438792999</v>
+        <v>0.3672500901299305</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3581194059674889</v>
+        <v>0.3682636861778361</v>
       </c>
     </row>
     <row r="101">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.8090631574589376</v>
+        <v>0.7953099641327906</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8510433835583893</v>
+        <v>0.853397245113786</v>
       </c>
       <c r="G101" t="n">
-        <v>7.9004001057366</v>
+        <v>8.508189501149944</v>
       </c>
       <c r="H101" t="n">
-        <v>1.149097314449166</v>
+        <v>1.2661800001569</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1909368425410625</v>
+        <v>0.2046900358672095</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1092652002856079</v>
+        <v>0.1063777231241426</v>
       </c>
     </row>
     <row r="102">
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.999132925475562</v>
+        <v>0.8587344212424273</v>
       </c>
       <c r="F102" t="n">
-        <v>1.307280193569878</v>
+        <v>1.22795785488949</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9878459360443111</v>
+        <v>1.404827317816123</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9744996668420393</v>
+        <v>1.642179348661468</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0008670745244376832</v>
+        <v>0.1412655787575724</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.02264006080367276</v>
+        <v>0.03941106002734562</v>
       </c>
     </row>
     <row r="103">
@@ -4139,22 +4139,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1.000954646246838</v>
+        <v>0.9705531493096509</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8443852844471381</v>
+        <v>0.8028864654660678</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9982874234912289</v>
+        <v>1.066909653029553</v>
       </c>
       <c r="H103" t="n">
-        <v>1.30743244235173</v>
+        <v>2.504250893987119</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.0009546462468383865</v>
+        <v>0.02944685069034891</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.02970700191977871</v>
+        <v>0.02089978299617112</v>
       </c>
     </row>
     <row r="104">
@@ -4175,22 +4175,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.9939840822331536</v>
+        <v>0.6397639577627661</v>
       </c>
       <c r="F104" t="n">
-        <v>0.846303989810122</v>
+        <v>0.6562413559495304</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9845729942873325</v>
+        <v>1.336043675514722</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9825826256846567</v>
+        <v>1.389857325502061</v>
       </c>
       <c r="I104" t="n">
-        <v>0.006015917766846846</v>
+        <v>0.3602360422372342</v>
       </c>
       <c r="J104" t="n">
-        <v>0.007841136556812622</v>
+        <v>0.2306598034479515</v>
       </c>
     </row>
     <row r="105">
@@ -4211,22 +4211,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9980238846518512</v>
+        <v>0.8230171761049481</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9993231559423794</v>
+        <v>0.8956952254350293</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9902354512742905</v>
+        <v>1.269260215453466</v>
       </c>
       <c r="H105" t="n">
-        <v>1.088171578292809</v>
+        <v>1.84542918938355</v>
       </c>
       <c r="I105" t="n">
-        <v>0.001976115348148677</v>
+        <v>0.1769828238950516</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.01483530872221324</v>
+        <v>0.0969902154904891</v>
       </c>
     </row>
     <row r="106">
@@ -4247,22 +4247,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9997514107847376</v>
+        <v>0.9402459705897742</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9849673720780877</v>
+        <v>0.9452459707534036</v>
       </c>
       <c r="G106" t="n">
-        <v>1.042063558995675</v>
+        <v>1.452738625710848</v>
       </c>
       <c r="H106" t="n">
-        <v>1.067834778353974</v>
+        <v>1.327475632870602</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0002485892152623848</v>
+        <v>0.05975402941022578</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.1288860368767577</v>
+        <v>-0.08336073665690535</v>
       </c>
     </row>
     <row r="107">
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.9999306690997846</v>
+        <v>0.9727158196886551</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8988494143806108</v>
+        <v>0.9394608551116412</v>
       </c>
       <c r="G107" t="n">
-        <v>1.026765844051584</v>
+        <v>1.24203747697495</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9693309426052439</v>
+        <v>1.122533807704994</v>
       </c>
       <c r="I107" t="n">
-        <v>6.933090021576938e-05</v>
+        <v>0.02728418031134539</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.004793222284871668</v>
+        <v>-0.05019137212055047</v>
       </c>
     </row>
     <row r="108">
@@ -4319,22 +4319,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1.006595720748377</v>
+        <v>0.7221315962839553</v>
       </c>
       <c r="F108" t="n">
-        <v>1.248039601905788</v>
+        <v>0.8900433898809648</v>
       </c>
       <c r="G108" t="n">
-        <v>1.250999476662011</v>
+        <v>1.831765850480846</v>
       </c>
       <c r="H108" t="n">
-        <v>1.232875853391613</v>
+        <v>1.420449421158258</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.00659572074837711</v>
+        <v>0.2778684037160444</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.1306085616885879</v>
+        <v>0.1937029279061965</v>
       </c>
     </row>
     <row r="109">
@@ -4355,22 +4355,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.002092600210966</v>
+        <v>0.8783644621874616</v>
       </c>
       <c r="F109" t="n">
-        <v>1.043952129454829</v>
+        <v>0.9249167385820035</v>
       </c>
       <c r="G109" t="n">
-        <v>1.106609626569756</v>
+        <v>1.508847317722214</v>
       </c>
       <c r="H109" t="n">
-        <v>1.090013858116944</v>
+        <v>1.290152953911285</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.002092600210966614</v>
+        <v>0.1216355378125383</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.08809594028340613</v>
+        <v>0.02005027304291307</v>
       </c>
     </row>
     <row r="110">
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9983769968925075</v>
+        <v>0.8777016412691518</v>
       </c>
       <c r="F110" t="n">
-        <v>1.133975802268417</v>
+        <v>0.9990176048095306</v>
       </c>
       <c r="G110" t="n">
-        <v>1.011929858815929</v>
+        <v>1.367987369059114</v>
       </c>
       <c r="H110" t="n">
-        <v>1.002769750091756</v>
+        <v>1.270211004283317</v>
       </c>
       <c r="I110" t="n">
-        <v>0.00162300310749186</v>
+        <v>0.1222983587308476</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.007721440789522305</v>
+        <v>0.1122108090147238</v>
       </c>
     </row>
     <row r="111">
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9993632520604742</v>
+        <v>0.9021555001181217</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9212973792001521</v>
+        <v>1.045568266207691</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9977002785124419</v>
+        <v>1.316529860459136</v>
       </c>
       <c r="H111" t="n">
-        <v>1.001008845100822</v>
+        <v>1.866551056205561</v>
       </c>
       <c r="I111" t="n">
-        <v>0.000636747939525506</v>
+        <v>0.09784449988187782</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0002646702798818623</v>
+        <v>-0.134586463568946</v>
       </c>
     </row>
     <row r="112">
@@ -4463,22 +4463,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.995817959122846</v>
+        <v>0.6227905405125225</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7258033127963427</v>
+        <v>0.5216953932239673</v>
       </c>
       <c r="G112" t="n">
-        <v>1.01698592276894</v>
+        <v>1.360586092245376</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9805409879322167</v>
+        <v>1.381084427341579</v>
       </c>
       <c r="I112" t="n">
-        <v>0.00418204087715357</v>
+        <v>0.3772094594874773</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01163077510994126</v>
+        <v>0.2895765804059235</v>
       </c>
     </row>
     <row r="113">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9978527360252759</v>
+        <v>0.8008825606332656</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9270254980883039</v>
+        <v>0.8554270880803964</v>
       </c>
       <c r="G113" t="n">
-        <v>1.008872020032437</v>
+        <v>1.348367773921208</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9947731943749317</v>
+        <v>1.505948829276818</v>
       </c>
       <c r="I113" t="n">
-        <v>0.002147263974724053</v>
+        <v>0.1991174393667345</v>
       </c>
       <c r="J113" t="n">
-        <v>0.001391334866767087</v>
+        <v>0.08906697528390066</v>
       </c>
     </row>
     <row r="114">
@@ -4535,22 +4535,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9996943108363489</v>
+        <v>0.8222345444273405</v>
       </c>
       <c r="F114" t="n">
-        <v>1.154158519518693</v>
+        <v>1.044467451413686</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9814507394165698</v>
+        <v>1.288869885571487</v>
       </c>
       <c r="H114" t="n">
-        <v>1.057512687254118</v>
+        <v>1.760362883488517</v>
       </c>
       <c r="I114" t="n">
-        <v>0.000305689163650924</v>
+        <v>0.1777654555726593</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.02049373580517422</v>
+        <v>0.0764938495064339</v>
       </c>
     </row>
     <row r="115">
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1.000577523432193</v>
+        <v>0.8490798799173777</v>
       </c>
       <c r="F115" t="n">
-        <v>1.002114343620902</v>
+        <v>1.008936104513072</v>
       </c>
       <c r="G115" t="n">
-        <v>1.127595688145511</v>
+        <v>2.29368825609691</v>
       </c>
       <c r="H115" t="n">
-        <v>1.007669250063024</v>
+        <v>1.180342241820832</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.0005775234321940825</v>
+        <v>0.1509201200826219</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.005348690020186231</v>
+        <v>-0.01219246829781628</v>
       </c>
     </row>
     <row r="116">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9935169073456697</v>
+        <v>0.5707568753639166</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8391550391685885</v>
+        <v>0.6541544479572977</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9757441455648319</v>
+        <v>1.282239583406171</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9954008270028981</v>
+        <v>1.241339235386098</v>
       </c>
       <c r="I116" t="n">
-        <v>0.006483092654331224</v>
+        <v>0.4292431246360839</v>
       </c>
       <c r="J116" t="n">
-        <v>0.006179260745494353</v>
+        <v>0.225277539059221</v>
       </c>
     </row>
     <row r="117">
@@ -4643,22 +4643,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9979295805380702</v>
+        <v>0.7473570999028781</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9984759674360612</v>
+        <v>0.9025193346280186</v>
       </c>
       <c r="G117" t="n">
-        <v>1.028263524375638</v>
+        <v>1.621599241691523</v>
       </c>
       <c r="H117" t="n">
-        <v>1.020194254773347</v>
+        <v>1.394014786898482</v>
       </c>
       <c r="I117" t="n">
-        <v>0.002070419461929207</v>
+        <v>0.2526429000971215</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.006554388359955698</v>
+        <v>0.09652630675594616</v>
       </c>
     </row>
     <row r="118">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1.001389549592355</v>
+        <v>0.8550590150672625</v>
       </c>
       <c r="F118" t="n">
-        <v>1.169871467230328</v>
+        <v>1.10071881717201</v>
       </c>
       <c r="G118" t="n">
-        <v>7.14618700559282</v>
+        <v>22.35665765581545</v>
       </c>
       <c r="H118" t="n">
-        <v>0.975810178559101</v>
+        <v>1.34543032976484</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.00138954959235571</v>
+        <v>0.1449409849327369</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.003149905431751643</v>
+        <v>0.05614761255164824</v>
       </c>
     </row>
     <row r="119">
@@ -4715,22 +4715,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9994921013886849</v>
+        <v>0.9393775880191428</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7892594043801489</v>
+        <v>0.8509012508092726</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9981664926455731</v>
+        <v>1.517433752506762</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9985656203994471</v>
+        <v>1.234356464997899</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0005078986113148387</v>
+        <v>0.06062241198085705</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.03087939341014567</v>
+        <v>-0.1113919712810958</v>
       </c>
     </row>
     <row r="120">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9931179628903024</v>
+        <v>0.6568814106434596</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9468326036583027</v>
+        <v>0.652038669934932</v>
       </c>
       <c r="G120" t="n">
-        <v>0.9592255519844909</v>
+        <v>1.272899230454042</v>
       </c>
       <c r="H120" t="n">
-        <v>1.001526551975218</v>
+        <v>0.9960631388543623</v>
       </c>
       <c r="I120" t="n">
-        <v>0.006882037109699035</v>
+        <v>0.3431185893565414</v>
       </c>
       <c r="J120" t="n">
-        <v>0.00381690044153582</v>
+        <v>0.3139759861055951</v>
       </c>
     </row>
     <row r="121">
@@ -4787,22 +4787,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9979998712904473</v>
+        <v>0.817106004576622</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9686544917562596</v>
+        <v>0.8678862459720712</v>
       </c>
       <c r="G121" t="n">
-        <v>3.034526350074295</v>
+        <v>8.382330212925412</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9919674503112553</v>
+        <v>1.191949977872367</v>
       </c>
       <c r="I121" t="n">
-        <v>0.002000128709553054</v>
+        <v>0.1828939954233784</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.01007079946678735</v>
+        <v>0.08624387579204906</v>
       </c>
     </row>
     <row r="122">
@@ -4823,22 +4823,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.8426201211679537</v>
+        <v>0.6775117727534475</v>
       </c>
       <c r="F122" t="n">
-        <v>1.245603247973199</v>
+        <v>1.31490702870127</v>
       </c>
       <c r="G122" t="n">
-        <v>1.346936873537057</v>
+        <v>1.355621884065611</v>
       </c>
       <c r="H122" t="n">
-        <v>1.857892427411334</v>
+        <v>2.106110067111253</v>
       </c>
       <c r="I122" t="n">
-        <v>0.157379878832046</v>
+        <v>0.3224882272465521</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02560767958542809</v>
+        <v>-0.02860627002252958</v>
       </c>
     </row>
     <row r="123">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.9560062544810367</v>
+        <v>0.8601505698040978</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7928224917632699</v>
+        <v>0.8480652116413789</v>
       </c>
       <c r="G123" t="n">
-        <v>1.116296912576228</v>
+        <v>1.031187077082002</v>
       </c>
       <c r="H123" t="n">
-        <v>1.660625590241856</v>
+        <v>1.643435763993733</v>
       </c>
       <c r="I123" t="n">
-        <v>0.04399374551896307</v>
+        <v>0.139849430195902</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03317255039250566</v>
+        <v>-0.03419458225574568</v>
       </c>
     </row>
     <row r="124">
@@ -4895,22 +4895,22 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.6224453791024664</v>
+        <v>0.5352214188444161</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5338536128767197</v>
+        <v>0.5701414639417034</v>
       </c>
       <c r="G124" t="n">
-        <v>1.357504369373678</v>
+        <v>1.25968700476581</v>
       </c>
       <c r="H124" t="n">
-        <v>1.178987076530035</v>
+        <v>1.270362948000602</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3775546208975339</v>
+        <v>0.4647785811555841</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3741402614495029</v>
+        <v>0.3315984401856003</v>
       </c>
     </row>
     <row r="125">
@@ -4931,22 +4931,22 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8070239182504856</v>
+        <v>0.6909612538006537</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8574264508710626</v>
+        <v>0.9110379014281175</v>
       </c>
       <c r="G125" t="n">
-        <v>1.273579385162321</v>
+        <v>1.215498655304474</v>
       </c>
       <c r="H125" t="n">
-        <v>1.565835031394408</v>
+        <v>1.673302926368529</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1929760817495141</v>
+        <v>0.309038746199346</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1443068304758121</v>
+        <v>0.08959919596910788</v>
       </c>
     </row>
     <row r="126">
@@ -4967,22 +4967,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.8996968715999941</v>
+        <v>0.9126024544479232</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8232887739960382</v>
+        <v>0.8634945237839046</v>
       </c>
       <c r="G126" t="n">
-        <v>1.531146892663067</v>
+        <v>1.289518868432606</v>
       </c>
       <c r="H126" t="n">
-        <v>1.366024529702237</v>
+        <v>1.206073757295626</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1003031284000059</v>
+        <v>0.08739754555207679</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05641625537233541</v>
+        <v>0.01033583603628785</v>
       </c>
     </row>
     <row r="127">
@@ -5003,22 +5003,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9236665168454938</v>
+        <v>0.9423702815630264</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9478931617072395</v>
+        <v>0.9304520799733002</v>
       </c>
       <c r="G127" t="n">
-        <v>1.251993492319945</v>
+        <v>1.21829132143053</v>
       </c>
       <c r="H127" t="n">
-        <v>1.245229579752866</v>
+        <v>1.084813076521403</v>
       </c>
       <c r="I127" t="n">
-        <v>0.07633348315450661</v>
+        <v>0.05762971843697406</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.05961756117950823</v>
+        <v>-0.04012076846294987</v>
       </c>
     </row>
     <row r="128">
@@ -5039,22 +5039,22 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.6182757186975635</v>
+        <v>0.6379572539449178</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7592627950148199</v>
+        <v>0.7544881367458006</v>
       </c>
       <c r="G128" t="n">
-        <v>1.621971567595195</v>
+        <v>1.571406320754992</v>
       </c>
       <c r="H128" t="n">
-        <v>1.638852608067186</v>
+        <v>1.43253405277543</v>
       </c>
       <c r="I128" t="n">
-        <v>0.3817242813024362</v>
+        <v>0.3620427460550819</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3121780628559221</v>
+        <v>0.3165034620739013</v>
       </c>
     </row>
     <row r="129">
@@ -5075,22 +5075,22 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.8138797023810168</v>
+        <v>0.8309766633186225</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8434815769060325</v>
+        <v>0.849478246834335</v>
       </c>
       <c r="G129" t="n">
-        <v>1.468370650859402</v>
+        <v>1.359738836872709</v>
       </c>
       <c r="H129" t="n">
-        <v>1.416702239174096</v>
+        <v>1.24114029553082</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1861202976189831</v>
+        <v>0.1690233366813774</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1029922523495828</v>
+        <v>0.09557284321574633</v>
       </c>
     </row>
     <row r="130">
@@ -5111,22 +5111,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.897256574099059</v>
+        <v>0.9566762800837108</v>
       </c>
       <c r="F130" t="n">
-        <v>1.007460767701708</v>
+        <v>1.112298874266698</v>
       </c>
       <c r="G130" t="n">
-        <v>1.27906205747389</v>
+        <v>1.189412217593217</v>
       </c>
       <c r="H130" t="n">
-        <v>1.077490834663858</v>
+        <v>1.177628274534824</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1027434259009403</v>
+        <v>0.04332371991628858</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1047076892325327</v>
+        <v>0.01154202592121867</v>
       </c>
     </row>
     <row r="131">
@@ -5147,22 +5147,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.9265350044438166</v>
+        <v>0.9662842101824344</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9647086854358295</v>
+        <v>0.9566080484070685</v>
       </c>
       <c r="G131" t="n">
-        <v>1.768658174668954</v>
+        <v>1.153362088985962</v>
       </c>
       <c r="H131" t="n">
-        <v>2.154291416905708</v>
+        <v>1.205712120865065</v>
       </c>
       <c r="I131" t="n">
-        <v>0.07346499555618291</v>
+        <v>0.03371578981756529</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.04684261291979963</v>
+        <v>-0.03805229915821884</v>
       </c>
     </row>
     <row r="132">
@@ -5183,22 +5183,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.6155826925074425</v>
+        <v>0.6508129468200163</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4656898014560051</v>
+        <v>0.4667504899224235</v>
       </c>
       <c r="G132" t="n">
-        <v>1.409820709153298</v>
+        <v>1.33220982964271</v>
       </c>
       <c r="H132" t="n">
-        <v>1.245957904620422</v>
+        <v>1.217858346490723</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3844173074925573</v>
+        <v>0.3491870531799833</v>
       </c>
       <c r="J132" t="n">
-        <v>0.365842701473825</v>
+        <v>0.3643982993625081</v>
       </c>
     </row>
     <row r="133">
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.8131247570167727</v>
+        <v>0.8579244790287205</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8126197515311809</v>
+        <v>0.8452191375320636</v>
       </c>
       <c r="G133" t="n">
-        <v>1.485846980432047</v>
+        <v>1.224994712073963</v>
       </c>
       <c r="H133" t="n">
-        <v>1.49258005206333</v>
+        <v>1.200399580630204</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1868752429832271</v>
+        <v>0.1420755209712794</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1412359259288529</v>
+        <v>0.1126293420418358</v>
       </c>
     </row>
     <row r="134">
@@ -5255,22 +5255,22 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.8668840749018637</v>
+        <v>0.8760364263365688</v>
       </c>
       <c r="F134" t="n">
-        <v>1.05469262850523</v>
+        <v>1.044235115851075</v>
       </c>
       <c r="G134" t="n">
-        <v>1.251898858156461</v>
+        <v>1.1491112802556</v>
       </c>
       <c r="H134" t="n">
-        <v>1.847025830997526</v>
+        <v>1.641888026457174</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1331159250981361</v>
+        <v>0.123963573663431</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06745286510702042</v>
+        <v>0.07669927794822939</v>
       </c>
     </row>
     <row r="135">
@@ -5291,22 +5291,22 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9308305847323706</v>
+        <v>0.9446077414194926</v>
       </c>
       <c r="F135" t="n">
-        <v>1.005149360730665</v>
+        <v>0.9939272985028818</v>
       </c>
       <c r="G135" t="n">
-        <v>1.857732162184565</v>
+        <v>1.565040921810132</v>
       </c>
       <c r="H135" t="n">
-        <v>1.079683450095882</v>
+        <v>1.036330407782433</v>
       </c>
       <c r="I135" t="n">
-        <v>0.06916941526762888</v>
+        <v>0.05539225858050689</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.008393502715376311</v>
+        <v>0.002864778968589388</v>
       </c>
     </row>
     <row r="136">
@@ -5327,22 +5327,22 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.5900772179606671</v>
+        <v>0.5938080207504172</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6053071644518074</v>
+        <v>0.6009803093959101</v>
       </c>
       <c r="G136" t="n">
-        <v>1.435005609861357</v>
+        <v>1.378919011295384</v>
       </c>
       <c r="H136" t="n">
-        <v>1.204232636100582</v>
+        <v>1.175539466244527</v>
       </c>
       <c r="I136" t="n">
-        <v>0.4099227820393334</v>
+        <v>0.4061919792495834</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2831279256243762</v>
+        <v>0.2882522686713529</v>
       </c>
     </row>
     <row r="137">
@@ -5363,22 +5363,22 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.7959306258649672</v>
+        <v>0.804817396168826</v>
       </c>
       <c r="F137" t="n">
-        <v>0.888383051229234</v>
+        <v>0.8797142412499556</v>
       </c>
       <c r="G137" t="n">
-        <v>1.514878876734127</v>
+        <v>1.364357071120373</v>
       </c>
       <c r="H137" t="n">
-        <v>1.376980639064663</v>
+        <v>1.284585966828044</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2040693741350323</v>
+        <v>0.1951826038311736</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1140624293386732</v>
+        <v>0.1226054418627237</v>
       </c>
     </row>
     <row r="138">
